--- a/acervo separado/Acervo_Instrumento_de_precisao_otico.xlsx
+++ b/acervo separado/Acervo_Instrumento_de_precisao_otico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{7F7D6B84-0A56-49F7-AA5C-6EBA75589F86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D673947-057C-4449-B30F-AB12A065BB52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$6</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$6</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,9 +111,6 @@
     <t>RT C</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>1462</t>
   </si>
   <si>
@@ -119,9 +123,6 @@
     <t>Relógio de mesa</t>
   </si>
   <si>
-    <t>Prata, ouro e esmalte</t>
-  </si>
-  <si>
     <t>8,5 x 5,7 cm</t>
   </si>
   <si>
@@ -134,9 +135,6 @@
     <t>Relógio de caixa (relicário neo-gótico)</t>
   </si>
   <si>
-    <t>Chumbo e pedras sintéticas</t>
-  </si>
-  <si>
     <t>21,6 x 9,3 cm</t>
   </si>
   <si>
@@ -173,9 +171,6 @@
     <t>Aparelho de medição (distância cidades européias)</t>
   </si>
   <si>
-    <t>Prata e bronze dourado</t>
-  </si>
-  <si>
     <t>11,5 x 8,8 cm</t>
   </si>
   <si>
@@ -222,14 +217,26 @@
   </si>
   <si>
     <t>5cm</t>
+  </si>
+  <si>
+    <t>mattec_259</t>
+  </si>
+  <si>
+    <t>mattec_72</t>
+  </si>
+  <si>
+    <t>mattec_186</t>
+  </si>
+  <si>
+    <t>mattec_256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -289,7 +296,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
@@ -297,12 +304,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,10 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -693,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -707,22 +716,22 @@
         <v>1462</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -737,13 +746,13 @@
         <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -751,25 +760,25 @@
         <v>1461</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -790,10 +799,10 @@
         <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -801,22 +810,22 @@
         <v>1473</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -831,16 +840,16 @@
         <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -848,22 +857,22 @@
         <v>1475</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -878,13 +887,13 @@
         <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -892,22 +901,22 @@
         <v>1474</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -928,14 +937,14 @@
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q6"/>
+  <autoFilter ref="A1:Q6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.1811023622047245" bottom="1.1811023622047245" header="0.78740157480314954" footer="0.78740157480314954"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
